--- a/js_simulation/sensitivity_analysis_results.xlsx
+++ b/js_simulation/sensitivity_analysis_results.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.5295093719383</v>
+        <v>39.2805552657297</v>
       </c>
       <c r="C2" t="n">
-        <v>31.7404866619132</v>
+        <v>39.57240936104169</v>
       </c>
       <c r="D2" t="n">
-        <v>112.917237189758</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="E2" t="n">
-        <v>112.917237189758</v>
+        <v>142.8571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.01103885053351</v>
+        <v>19.58988206055776</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0501087884942</v>
+        <v>19.62127252702888</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7320609859241819</v>
+        <v>0.7585263836755585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.733473342676397</v>
+        <v>0.7597418323924329</v>
       </c>
       <c r="D4" t="n">
-        <v>22.33282043326459</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.33282043326459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.52463755801297</v>
+        <v>16.65882959777194</v>
       </c>
       <c r="C5" t="n">
-        <v>18.55246253049079</v>
+        <v>16.68552339972137</v>
       </c>
       <c r="D5" t="n">
-        <v>47.67444483409848</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>47.67444483409848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.46505009510349</v>
+        <v>34.44375171415167</v>
       </c>
       <c r="C6" t="n">
-        <v>35.66852567074155</v>
+        <v>34.65918190752335</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.45274042147505</v>
+        <v>39.09446074799958</v>
       </c>
       <c r="C7" t="n">
-        <v>45.67121802927583</v>
+        <v>39.17693342654325</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>12.37435215974708</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>12.37435215974708</v>
       </c>
     </row>
     <row r="8">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.428898909570252</v>
+        <v>1.324066207173075</v>
       </c>
       <c r="C8" t="n">
-        <v>1.411653291693535</v>
+        <v>1.326187866494623</v>
       </c>
       <c r="D8" t="n">
-        <v>41.49022361694536</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>41.49022361694536</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -669,19 +669,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.7404866619132</v>
+        <v>39.57240936104169</v>
       </c>
       <c r="D2" t="n">
-        <v>-103455.8216922403</v>
+        <v>-165078.7102177362</v>
       </c>
       <c r="E2" t="n">
-        <v>111096.3345413025</v>
+        <v>131929.1790813852</v>
       </c>
       <c r="F2" t="n">
-        <v>152513.9058657402</v>
+        <v>197620.5282571637</v>
       </c>
       <c r="G2" t="n">
-        <v>41417.57132443773</v>
+        <v>65691.34917577851</v>
       </c>
     </row>
     <row r="3">
@@ -696,19 +696,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>112.917237189758</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>553.4502652421015</v>
+        <v>950.0000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>291.3177848919257</v>
+        <v>475</v>
       </c>
       <c r="G3" t="n">
-        <v>221.3177848919257</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -723,19 +723,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31.5295093719383</v>
+        <v>39.2805552657297</v>
       </c>
       <c r="D4" t="n">
-        <v>-102902.3714269984</v>
+        <v>-164128.7102177363</v>
       </c>
       <c r="E4" t="n">
-        <v>111379.8370487804</v>
+        <v>132404.1790813852</v>
       </c>
       <c r="F4" t="n">
-        <v>152583.9058657402</v>
+        <v>197715.5282571637</v>
       </c>
       <c r="G4" t="n">
-        <v>41204.06881695987</v>
+        <v>65311.34917577851</v>
       </c>
     </row>
     <row r="5">
@@ -750,19 +750,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112.917237189758</v>
+        <v>142.8571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>553.4502652421015</v>
+        <v>950.0000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>291.3177848919257</v>
+        <v>475</v>
       </c>
       <c r="G5" t="n">
-        <v>221.3177848919257</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.67121802927583</v>
+        <v>39.17693342654325</v>
       </c>
       <c r="D6" t="n">
-        <v>-594372.6981557207</v>
+        <v>-651776.9972108427</v>
       </c>
       <c r="E6" t="n">
-        <v>101669.4829208862</v>
+        <v>131712.0447062762</v>
       </c>
       <c r="F6" t="n">
-        <v>161265.006781309</v>
+        <v>196746.8923416322</v>
       </c>
       <c r="G6" t="n">
-        <v>59595.52386042275</v>
+        <v>65034.84763535598</v>
       </c>
     </row>
     <row r="7">
@@ -804,19 +804,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>12.37435215974708</v>
       </c>
       <c r="D7" t="n">
-        <v>1427.19161724306</v>
+        <v>235.1126910351952</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>233.0842232550728</v>
       </c>
       <c r="F7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G7" t="n">
-        <v>196</v>
+        <v>32.91577674492723</v>
       </c>
     </row>
     <row r="8">
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.45274042147505</v>
+        <v>39.09446074799958</v>
       </c>
       <c r="D8" t="n">
-        <v>-592945.5065384774</v>
+        <v>-651541.8845198069</v>
       </c>
       <c r="E8" t="n">
-        <v>101865.4829208862</v>
+        <v>131978.0447062762</v>
       </c>
       <c r="F8" t="n">
-        <v>161265.006781309</v>
+        <v>196979.9765648873</v>
       </c>
       <c r="G8" t="n">
-        <v>59399.52386042275</v>
+        <v>65001.93185861106</v>
       </c>
     </row>
     <row r="9">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>12.37435215974708</v>
       </c>
       <c r="D9" t="n">
-        <v>1427.19161724306</v>
+        <v>235.1126910351952</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>233.0842232550728</v>
       </c>
       <c r="F9" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G9" t="n">
-        <v>196</v>
+        <v>32.91577674492723</v>
       </c>
     </row>
     <row r="10">
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35.66852567074155</v>
+        <v>34.65918190752335</v>
       </c>
       <c r="D10" t="n">
-        <v>-154979.507478181</v>
+        <v>-190378.4631906842</v>
       </c>
       <c r="E10" t="n">
-        <v>118207.8923809447</v>
+        <v>148198.949686268</v>
       </c>
       <c r="F10" t="n">
-        <v>164751.0888272096</v>
+        <v>205734.1985527527</v>
       </c>
       <c r="G10" t="n">
-        <v>46543.19644626488</v>
+        <v>57535.24886648468</v>
       </c>
     </row>
     <row r="11">
@@ -915,16 +915,16 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>800.5636848028694</v>
+        <v>950.0000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G11" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
@@ -939,19 +939,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35.46505009510349</v>
+        <v>34.44375171415167</v>
       </c>
       <c r="D12" t="n">
-        <v>-154178.9437933782</v>
+        <v>-189428.4631906844</v>
       </c>
       <c r="E12" t="n">
-        <v>118403.8923809447</v>
+        <v>148464.949686268</v>
       </c>
       <c r="F12" t="n">
-        <v>164751.0888272096</v>
+        <v>205734.1985527527</v>
       </c>
       <c r="G12" t="n">
-        <v>46347.19644626488</v>
+        <v>57269.24886648468</v>
       </c>
     </row>
     <row r="13">
@@ -969,16 +969,16 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5636848028694</v>
+        <v>950.0000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G13" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -993,19 +993,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.733473342676397</v>
+        <v>0.7597418323924329</v>
       </c>
       <c r="D14" t="n">
-        <v>-251.3880958974102</v>
+        <v>390.3079389378561</v>
       </c>
       <c r="E14" t="n">
-        <v>130960.5486618693</v>
+        <v>164964.8294550743</v>
       </c>
       <c r="F14" t="n">
-        <v>131917.6443991985</v>
+        <v>166226.0229684587</v>
       </c>
       <c r="G14" t="n">
-        <v>957.0957373292622</v>
+        <v>1261.19351338438</v>
       </c>
     </row>
     <row r="15">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.33282043326459</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8745397558732071</v>
+        <v>-2.146448024754879e-13</v>
       </c>
       <c r="E15" t="n">
-        <v>152.2276719508014</v>
+        <v>266</v>
       </c>
       <c r="F15" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G15" t="n">
-        <v>43.77232804919859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1047,19 +1047,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7320609859241819</v>
+        <v>0.7585263836755585</v>
       </c>
       <c r="D16" t="n">
-        <v>-250.5135561415449</v>
+        <v>390.3079389379185</v>
       </c>
       <c r="E16" t="n">
-        <v>131156.5486618693</v>
+        <v>165230.8294550743</v>
       </c>
       <c r="F16" t="n">
-        <v>132113.2362806458</v>
+        <v>166492.0229684587</v>
       </c>
       <c r="G16" t="n">
-        <v>956.6876187765156</v>
+        <v>1261.19351338438</v>
       </c>
     </row>
     <row r="17">
@@ -1074,19 +1074,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.33282043326459</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8745397558732071</v>
+        <v>-2.146448024754879e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>152.2276719508014</v>
+        <v>266</v>
       </c>
       <c r="F17" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G17" t="n">
-        <v>43.77232804919859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1101,19 +1101,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18.55246253049079</v>
+        <v>16.68552339972137</v>
       </c>
       <c r="D18" t="n">
-        <v>-40118.88856903019</v>
+        <v>-44855.68202424914</v>
       </c>
       <c r="E18" t="n">
-        <v>119624.7325349682</v>
+        <v>152559.8603425236</v>
       </c>
       <c r="F18" t="n">
-        <v>143833.4961965095</v>
+        <v>180258.3139249533</v>
       </c>
       <c r="G18" t="n">
-        <v>24208.76366154131</v>
+        <v>27698.45358242968</v>
       </c>
     </row>
     <row r="19">
@@ -1128,19 +1128,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>47.67444483409848</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.42617103255735</v>
+        <v>-1.079353154055962e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>102.558088125167</v>
+        <v>266</v>
       </c>
       <c r="F19" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G19" t="n">
-        <v>93.44191187483304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1155,19 +1155,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18.52463755801297</v>
+        <v>16.65882959777194</v>
       </c>
       <c r="D20" t="n">
-        <v>-40152.31474006278</v>
+        <v>-44855.68202424923</v>
       </c>
       <c r="E20" t="n">
-        <v>119820.7325349682</v>
+        <v>152825.8603425236</v>
       </c>
       <c r="F20" t="n">
-        <v>144029.4961965095</v>
+        <v>180524.3139249533</v>
       </c>
       <c r="G20" t="n">
-        <v>24208.76366154131</v>
+        <v>27698.45358242968</v>
       </c>
     </row>
     <row r="21">
@@ -1182,19 +1182,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>47.67444483409848</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-33.42617103255735</v>
+        <v>-1.079353154055962e-13</v>
       </c>
       <c r="E21" t="n">
-        <v>102.558088125167</v>
+        <v>266</v>
       </c>
       <c r="F21" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G21" t="n">
-        <v>93.44191187483304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26.0501087884942</v>
+        <v>19.62127252702888</v>
       </c>
       <c r="D22" t="n">
-        <v>-59294.54172189269</v>
+        <v>-56417.89412731188</v>
       </c>
       <c r="E22" t="n">
-        <v>124175.8556996931</v>
+        <v>160116.8813543245</v>
       </c>
       <c r="F22" t="n">
-        <v>158168.158661181</v>
+        <v>192688.7637758965</v>
       </c>
       <c r="G22" t="n">
-        <v>33992.30296148793</v>
+        <v>32571.88242157197</v>
       </c>
     </row>
     <row r="23">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.74465880795345e-15</v>
+        <v>-1.079353154055962e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="F23" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26.01103885053351</v>
+        <v>19.58988206055776</v>
       </c>
       <c r="D24" t="n">
-        <v>-59294.54172189278</v>
+        <v>-56417.89412731177</v>
       </c>
       <c r="E24" t="n">
-        <v>124371.8556996931</v>
+        <v>160382.8813543245</v>
       </c>
       <c r="F24" t="n">
-        <v>158364.158661181</v>
+        <v>192954.7637758965</v>
       </c>
       <c r="G24" t="n">
-        <v>33992.30296148793</v>
+        <v>32571.88242157197</v>
       </c>
     </row>
     <row r="25">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.74465880795345e-15</v>
+        <v>-1.079353154055962e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="F25" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.411653291693535</v>
+        <v>1.326187866494623</v>
       </c>
       <c r="D26" t="n">
-        <v>1933.638585558324</v>
+        <v>-3150.306665487401</v>
       </c>
       <c r="E26" t="n">
-        <v>129891.2346418069</v>
+        <v>164168.716306219</v>
       </c>
       <c r="F26" t="n">
-        <v>131733.2747944001</v>
+        <v>166370.2266922999</v>
       </c>
       <c r="G26" t="n">
-        <v>1842.040152593239</v>
+        <v>2201.510386080918</v>
       </c>
     </row>
     <row r="27">
@@ -1344,19 +1344,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>41.49022361694536</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>59.38327981983111</v>
+        <v>1.616304892191849e-13</v>
       </c>
       <c r="E27" t="n">
-        <v>114.6791617107871</v>
+        <v>266</v>
       </c>
       <c r="F27" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G27" t="n">
-        <v>81.32083828921293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1371,19 +1371,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.428898909570252</v>
+        <v>1.324066207173075</v>
       </c>
       <c r="D28" t="n">
-        <v>1993.021865378154</v>
+        <v>-3150.306665487402</v>
       </c>
       <c r="E28" t="n">
-        <v>130061.9305135909</v>
+        <v>164434.716306219</v>
       </c>
       <c r="F28" t="n">
-        <v>131929.2747944001</v>
+        <v>166636.2266922999</v>
       </c>
       <c r="G28" t="n">
-        <v>1867.34428080928</v>
+        <v>2201.510386080918</v>
       </c>
     </row>
     <row r="29">
@@ -1398,19 +1398,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>41.49022361694536</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>59.38327981983111</v>
+        <v>1.616304892191849e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>114.6791617107871</v>
+        <v>266</v>
       </c>
       <c r="F29" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G29" t="n">
-        <v>81.32083828921293</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1471,22 +1471,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>152513.9058657402</v>
+        <v>197620.5282571637</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
-        <v>152583.9058657402</v>
+        <v>197715.5282571637</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009999999999999856</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02327143215843689</v>
+        <v>0.02492389497298023</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -1494,22 +1494,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>145168.6924857829</v>
+        <v>188464.8594017443</v>
       </c>
       <c r="B3" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
       <c r="C3" t="n">
-        <v>145273.6924857829</v>
+        <v>188607.3594017443</v>
       </c>
       <c r="D3" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009999999999999905</v>
+        <v>0.009999999999999929</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02567007811196768</v>
+        <v>0.02749486222405561</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -1517,22 +1517,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>139784.1419964518</v>
+        <v>179975.5880339117</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C4" t="n">
-        <v>139924.1419964518</v>
+        <v>180165.5880339117</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009999999999999929</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02264725600560332</v>
+        <v>0.02401756595149995</v>
       </c>
       <c r="G4" t="n">
         <v>0.2</v>
@@ -1540,22 +1540,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130395.0721169578</v>
+        <v>165683.7712536141</v>
       </c>
       <c r="B5" t="n">
-        <v>134.1829050409926</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>130529.2550219988</v>
+        <v>165949.7712536141</v>
       </c>
       <c r="D5" t="n">
-        <v>134.1829050409926</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006846066583724079</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02485074254475473</v>
+        <v>0.02804091756050594</v>
       </c>
       <c r="G5" t="n">
         <v>0.28</v>
@@ -1563,22 +1563,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>123791.3045013591</v>
+        <v>154614.7227712834</v>
       </c>
       <c r="B6" t="n">
-        <v>169.7231114143233</v>
+        <v>332.5</v>
       </c>
       <c r="C6" t="n">
-        <v>123961.0276127735</v>
+        <v>154947.2227712834</v>
       </c>
       <c r="D6" t="n">
-        <v>169.7231114143233</v>
+        <v>332.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006927473935278472</v>
+        <v>0.009999999999999969</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02801779657849318</v>
+        <v>0.03017141068172168</v>
       </c>
       <c r="G6" t="n">
         <v>0.35</v>
@@ -1586,22 +1586,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>119099.4300597132</v>
+        <v>145918.4302842246</v>
       </c>
       <c r="B7" t="n">
-        <v>247.4684470992721</v>
+        <v>380</v>
       </c>
       <c r="C7" t="n">
-        <v>119346.8985068124</v>
+        <v>146298.4302842246</v>
       </c>
       <c r="D7" t="n">
-        <v>247.4684470992721</v>
+        <v>380</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00883815882497397</v>
+        <v>0.009999999999999972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02178053915929843</v>
+        <v>0.03156658972683259</v>
       </c>
       <c r="G7" t="n">
         <v>0.4</v>
@@ -1609,22 +1609,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>114277.4810682768</v>
+        <v>139253.746783952</v>
       </c>
       <c r="B8" t="n">
-        <v>291.3177848919257</v>
+        <v>427.5</v>
       </c>
       <c r="C8" t="n">
-        <v>114568.7988531687</v>
+        <v>139681.246783952</v>
       </c>
       <c r="D8" t="n">
-        <v>291.3177848919257</v>
+        <v>427.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.009248183647362693</v>
+        <v>0.009999999999999976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02678124637043862</v>
+        <v>0.03227926798417251</v>
       </c>
       <c r="G8" t="n">
         <v>0.45</v>
@@ -1632,22 +1632,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111096.3345413025</v>
+        <v>131929.1790813852</v>
       </c>
       <c r="B9" t="n">
-        <v>283.5025074778555</v>
+        <v>475</v>
       </c>
       <c r="C9" t="n">
-        <v>111379.8370487804</v>
+        <v>132404.1790813852</v>
       </c>
       <c r="D9" t="n">
-        <v>283.5025074778555</v>
+        <v>475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00810007164222442</v>
+        <v>0.009999999999999979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02059957397415671</v>
+        <v>0.02951070431870089</v>
       </c>
       <c r="G9" t="n">
         <v>0.5</v>
@@ -1711,22 +1711,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>161265.006781309</v>
+        <v>196746.8923416322</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>233.0842232550728</v>
       </c>
       <c r="C2" t="n">
-        <v>161265.006781309</v>
+        <v>196979.9765648873</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>233.0842232550728</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.008762564784025258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001124952348299055</v>
+        <v>0.02478143610925967</v>
       </c>
       <c r="G2" t="n">
         <v>-0.05</v>
@@ -1734,22 +1734,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>148557.0737750097</v>
+        <v>185477.5354689427</v>
       </c>
       <c r="B3" t="n">
-        <v>182.7524878306698</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>148739.8262628404</v>
+        <v>185743.5354689427</v>
       </c>
       <c r="D3" t="n">
-        <v>182.7524878306698</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009324106521972901</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02803356096721348</v>
+        <v>0.025493397577287</v>
       </c>
       <c r="G3" t="n">
         <v>-0.03</v>
@@ -1757,22 +1757,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>137269.0560764151</v>
+        <v>172994.5043486731</v>
       </c>
       <c r="B4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>137465.0560764151</v>
+        <v>173260.5043486731</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02388697520841598</v>
+        <v>0.02351468084900775</v>
       </c>
       <c r="G4" t="n">
         <v>-0.01</v>
@@ -1780,22 +1780,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130672.8127826246</v>
+        <v>166510.6329107051</v>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>130868.8127826246</v>
+        <v>166776.6329107051</v>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02707434011854735</v>
+        <v>0.02839189807932479</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1803,22 +1803,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>125760.2902439231</v>
+        <v>159967.178121927</v>
       </c>
       <c r="B6" t="n">
-        <v>175.2915955621515</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>125935.5818394853</v>
+        <v>160233.178121927</v>
       </c>
       <c r="D6" t="n">
-        <v>175.2915955621515</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008943448753170951</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02223039535777164</v>
+        <v>0.02705643964152569</v>
       </c>
       <c r="G6" t="n">
         <v>0.01</v>
@@ -1826,22 +1826,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>113032.2392502101</v>
+        <v>146130.0909209213</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
-        <v>113228.2392502101</v>
+        <v>146396.0909209213</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02450950535450017</v>
+        <v>0.02852994588135151</v>
       </c>
       <c r="G7" t="n">
         <v>0.03</v>
@@ -1849,22 +1849,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101669.4829208862</v>
+        <v>131712.0447062762</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C8" t="n">
-        <v>101865.4829208862</v>
+        <v>131978.0447062762</v>
       </c>
       <c r="D8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02547712269742152</v>
+        <v>0.02628573868470423</v>
       </c>
       <c r="G8" t="n">
         <v>0.05</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>164751.0888272096</v>
+        <v>205734.1985527527</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>164751.0888272096</v>
+        <v>205734.1985527527</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000941556778281492</v>
+        <v>0.001036570305258466</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>150935.228484778</v>
+        <v>190226.9073973249</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>150935.228484778</v>
+        <v>190226.9073973249</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009540538251997118</v>
+        <v>0.001212886097153849</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -1974,22 +1974,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>140378.6722545335</v>
+        <v>175492.3091377978</v>
       </c>
       <c r="B4" t="n">
-        <v>55.21084127598343</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>140433.8830958095</v>
+        <v>175758.3091377978</v>
       </c>
       <c r="D4" t="n">
-        <v>55.21084127598343</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002816879656937915</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.021488225078888</v>
+        <v>0.03029452510030207</v>
       </c>
       <c r="G4" t="n">
         <v>0.2</v>
@@ -1997,22 +1997,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130322.9295540927</v>
+        <v>164863.475620475</v>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>130518.9295540927</v>
+        <v>165129.475620475</v>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02168734597130909</v>
+        <v>0.02669019885016107</v>
       </c>
       <c r="G5" t="n">
         <v>0.25</v>
@@ -2020,22 +2020,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>124948.9085269629</v>
+        <v>158215.9468632811</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>125144.9085269629</v>
+        <v>158481.9468632811</v>
       </c>
       <c r="D6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02339144358899954</v>
+        <v>0.02443142991420614</v>
       </c>
       <c r="G6" t="n">
         <v>0.3</v>
@@ -2043,22 +2043,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>119979.2497832341</v>
+        <v>151903.0376008314</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
-        <v>120175.2497832341</v>
+        <v>152169.0376008314</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02400667513015414</v>
+        <v>0.02855114029780673</v>
       </c>
       <c r="G7" t="n">
         <v>0.35</v>
@@ -2066,22 +2066,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>118207.8923809447</v>
+        <v>148198.949686268</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C8" t="n">
-        <v>118403.8923809447</v>
+        <v>148464.949686268</v>
       </c>
       <c r="D8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02306032133545016</v>
+        <v>0.02831720282163794</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -2145,22 +2145,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131917.6443991985</v>
+        <v>165404.2855796349</v>
       </c>
       <c r="B2" t="n">
-        <v>195.5918814472592</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>132113.2362806458</v>
+        <v>165670.2855796349</v>
       </c>
       <c r="D2" t="n">
-        <v>195.5918814472592</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00997917762486011</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0219555050679838</v>
+        <v>0.02684647275608657</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -2168,22 +2168,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131444.5193318682</v>
+        <v>166063.1669994737</v>
       </c>
       <c r="B3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>131640.5193318682</v>
+        <v>166329.1669994737</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02469222974281091</v>
+        <v>0.03191708032960298</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131738.4143039674</v>
+        <v>165411.6353306171</v>
       </c>
       <c r="B4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>131934.4143039674</v>
+        <v>165677.6353306171</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0227131417052726</v>
+        <v>0.02590504029613211</v>
       </c>
       <c r="G4" t="n">
         <v>0.2</v>
@@ -2214,22 +2214,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131228.5802187808</v>
+        <v>166110.9779565222</v>
       </c>
       <c r="B5" t="n">
-        <v>152.2276719508014</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>131380.8078907316</v>
+        <v>166376.9779565222</v>
       </c>
       <c r="D5" t="n">
-        <v>152.2276719508014</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007766717956673502</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02312144547322029</v>
+        <v>0.02313710633083759</v>
       </c>
       <c r="G5" t="n">
         <v>0.25</v>
@@ -2237,22 +2237,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130960.5486618693</v>
+        <v>165689.529367458</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>131156.5486618693</v>
+        <v>165955.529367458</v>
       </c>
       <c r="D6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02623989298990874</v>
+        <v>0.02433355643185002</v>
       </c>
       <c r="G6" t="n">
         <v>0.3</v>
@@ -2260,22 +2260,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131848.8347041915</v>
+        <v>164964.8294550743</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
-        <v>132044.8347041915</v>
+        <v>165230.8294550743</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02237830081612495</v>
+        <v>0.02650043761129058</v>
       </c>
       <c r="G7" t="n">
         <v>0.35</v>
@@ -2283,22 +2283,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131790.0749202637</v>
+        <v>166226.0229684587</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C8" t="n">
-        <v>131986.0749202637</v>
+        <v>166492.0229684587</v>
       </c>
       <c r="D8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02860631716417301</v>
+        <v>0.02520232743537814</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -2362,22 +2362,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>143833.4961965095</v>
+        <v>180258.3139249533</v>
       </c>
       <c r="B2" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>144029.4961965095</v>
+        <v>180524.3139249533</v>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0254646525788187</v>
+        <v>0.02782063938431964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2385,22 +2385,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>139158.3877274688</v>
+        <v>174134.6613462217</v>
       </c>
       <c r="B3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>139354.3877274688</v>
+        <v>174400.6613462217</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02746389438619707</v>
+        <v>0.02988550035520089</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -2408,22 +2408,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>135767.1715250589</v>
+        <v>170362.6125744349</v>
       </c>
       <c r="B4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>135963.1715250589</v>
+        <v>170628.6125744349</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02489780451605544</v>
+        <v>0.02463039971284281</v>
       </c>
       <c r="G4" t="n">
         <v>0.2</v>
@@ -2431,22 +2431,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131500.9465634492</v>
+        <v>166181.9873560942</v>
       </c>
       <c r="B5" t="n">
-        <v>102.558088125167</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>131603.5046515744</v>
+        <v>166447.9873560942</v>
       </c>
       <c r="D5" t="n">
-        <v>102.558088125167</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005232555516590126</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02633359370875052</v>
+        <v>0.02290389394410553</v>
       </c>
       <c r="G5" t="n">
         <v>0.3</v>
@@ -2454,22 +2454,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126249.8413332833</v>
+        <v>161388.4729204442</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>126445.8413332833</v>
+        <v>161654.4729204442</v>
       </c>
       <c r="D6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02445374311318668</v>
+        <v>0.0275196622911827</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -2477,22 +2477,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>124063.7543190263</v>
+        <v>157371.4567129127</v>
       </c>
       <c r="B7" t="n">
-        <v>149.2033605544198</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
-        <v>124212.9576795807</v>
+        <v>157637.4567129127</v>
       </c>
       <c r="D7" t="n">
-        <v>149.2033605544198</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007612416354817301</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0240239344857696</v>
+        <v>0.02436436750983772</v>
       </c>
       <c r="G7" t="n">
         <v>0.5</v>
@@ -2500,22 +2500,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>119624.7325349682</v>
+        <v>152559.8603425236</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C8" t="n">
-        <v>119820.7325349682</v>
+        <v>152825.8603425236</v>
       </c>
       <c r="D8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02643527765419524</v>
+        <v>0.02661400440174729</v>
       </c>
       <c r="G8" t="n">
         <v>0.6</v>
@@ -2579,22 +2579,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>158168.158661181</v>
+        <v>192688.7637758965</v>
       </c>
       <c r="B2" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>158364.158661181</v>
+        <v>192954.7637758965</v>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02545158302031507</v>
+        <v>0.02774228550944623</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>152254.8274724967</v>
+        <v>186973.2001952253</v>
       </c>
       <c r="B3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>152450.8274724967</v>
+        <v>187239.2001952253</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02720702567348912</v>
+        <v>0.0300779245593739</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>138561.6366958875</v>
+        <v>172686.1940447078</v>
       </c>
       <c r="B4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>138757.6366958875</v>
+        <v>172952.1940447078</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02661784165403718</v>
+        <v>0.03208090972663327</v>
       </c>
       <c r="G4" t="n">
         <v>0.2</v>
@@ -2648,22 +2648,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130912.5215314088</v>
+        <v>165469.0112738288</v>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>131108.5215314088</v>
+        <v>165735.0112738288</v>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02438195588485252</v>
+        <v>0.02625335885634313</v>
       </c>
       <c r="G5" t="n">
         <v>0.3</v>
@@ -2671,22 +2671,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>127532.4571263025</v>
+        <v>162818.8840710715</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>127728.4571263025</v>
+        <v>163084.8840710715</v>
       </c>
       <c r="D6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0260673055418748</v>
+        <v>0.02638083886582836</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -2694,22 +2694,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>125745.5132888713</v>
+        <v>161779.6270361649</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
-        <v>125941.5132888713</v>
+        <v>162045.6270361649</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02405635325980549</v>
+        <v>0.02505863799600985</v>
       </c>
       <c r="G7" t="n">
         <v>0.5</v>
@@ -2717,22 +2717,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>124175.8556996931</v>
+        <v>160116.8813543245</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C8" t="n">
-        <v>124371.8556996931</v>
+        <v>160382.8813543245</v>
       </c>
       <c r="D8" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0226559212260113</v>
+        <v>0.02786843067255244</v>
       </c>
       <c r="G8" t="n">
         <v>0.6</v>
@@ -2796,22 +2796,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>129891.2346418069</v>
+        <v>166370.2266922999</v>
       </c>
       <c r="B2" t="n">
-        <v>170.6958717839609</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>130061.9305135909</v>
+        <v>166636.2266922999</v>
       </c>
       <c r="D2" t="n">
-        <v>170.6958717839609</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008708973050202042</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02265472886117323</v>
+        <v>0.02978828832496062</v>
       </c>
       <c r="G2" t="n">
         <v>0.3</v>
@@ -2819,22 +2819,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131409.2048899547</v>
+        <v>166059.548611998</v>
       </c>
       <c r="B3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>131605.2048899547</v>
+        <v>166325.548611998</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02754304057843961</v>
+        <v>0.03172477539791887</v>
       </c>
       <c r="G3" t="n">
         <v>0.4</v>
@@ -2842,22 +2842,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131253.2172434872</v>
+        <v>165818.5437253403</v>
       </c>
       <c r="B4" t="n">
-        <v>114.6791617107871</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>131367.8964051979</v>
+        <v>166084.5437253403</v>
       </c>
       <c r="D4" t="n">
-        <v>114.6791617107871</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005850977638305434</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02224238320599229</v>
+        <v>0.02429156302886677</v>
       </c>
       <c r="G4" t="n">
         <v>0.5</v>
@@ -2865,22 +2865,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131448.7319701466</v>
+        <v>164957.6966108176</v>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>131644.7319701466</v>
+        <v>165223.6966108176</v>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02616935453756976</v>
+        <v>0.02873689327161941</v>
       </c>
       <c r="G5" t="n">
         <v>0.6</v>
@@ -2888,22 +2888,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131733.2747944001</v>
+        <v>166340.3238505717</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>131929.2747944001</v>
+        <v>166606.3238505717</v>
       </c>
       <c r="D6" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.026970942022168</v>
+        <v>0.02615828282876385</v>
       </c>
       <c r="G6" t="n">
         <v>0.7</v>
@@ -2911,22 +2911,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131011.2367636985</v>
+        <v>164168.716306219</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C7" t="n">
-        <v>131207.2367636985</v>
+        <v>164434.716306219</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02177173637915422</v>
+        <v>0.02678057728615751</v>
       </c>
       <c r="G7" t="n">
         <v>0.8</v>
